--- a/model_performance_summary CLEAN.xlsx
+++ b/model_performance_summary CLEAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\GitHub\Thesis-SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD713DF3-95D6-406B-A2FB-F462720859D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3196A-2A2E-4997-B978-5484F9531055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Precision</t>
+  </si>
+  <si>
+    <t>Brier Score</t>
   </si>
   <si>
     <t>Original Baseline (no missingness)</t>
@@ -80,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +99,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -106,7 +116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,11 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -448,18 +459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,207 +484,252 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.22416302765647739</v>
+      </c>
+      <c r="D2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E2">
+        <v>0.2108319124457157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.22561863173216881</v>
+      </c>
+      <c r="D3">
+        <v>0.49839228295819937</v>
+      </c>
+      <c r="E3">
+        <v>0.21818892071090529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.23871906841339149</v>
+      </c>
+      <c r="D5">
+        <v>0.57746478873239437</v>
+      </c>
+      <c r="E5">
+        <v>0.2107500442327303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.23289665211062591</v>
+      </c>
+      <c r="D6">
+        <v>0.57971014492753625</v>
+      </c>
+      <c r="E6">
+        <v>0.2109762978247412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="C7">
+        <v>5.6768558951965073E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.62903225806451613</v>
+      </c>
+      <c r="E7">
+        <v>0.21993637786893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.45123726346433768</v>
+      </c>
+      <c r="D8">
+        <v>0.4264099037138927</v>
+      </c>
+      <c r="E8">
+        <v>0.22808510429537329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.22998544395924311</v>
+      </c>
+      <c r="D10">
+        <v>0.58088235294117652</v>
+      </c>
+      <c r="E10">
+        <v>0.21081466970920629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="C11">
+        <v>0.22998544395924311</v>
+      </c>
+      <c r="D11">
+        <v>0.57875457875457881</v>
+      </c>
+      <c r="E11">
+        <v>0.21094866697859241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.28238719068413393</v>
+      </c>
+      <c r="D12">
+        <v>0.49113924050632912</v>
+      </c>
+      <c r="E12">
+        <v>0.21660084271634711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.34497816593886471</v>
+      </c>
+      <c r="D13">
+        <v>0.50318471337579618</v>
+      </c>
+      <c r="E13">
+        <v>0.21446181413198781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>0.67249999999999999</v>
       </c>
-      <c r="C2">
-        <v>0.22125181950509459</v>
-      </c>
-      <c r="D2">
-        <v>0.55882352941176472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="C3">
-        <v>0.25618631732168851</v>
-      </c>
-      <c r="D3">
-        <v>0.49025069637883012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.67649999999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.22998544395924311</v>
-      </c>
-      <c r="D5">
-        <v>0.57246376811594202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.67449999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.24599708879184859</v>
-      </c>
-      <c r="D6">
-        <v>0.55960264900662249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.66649999999999998</v>
-      </c>
-      <c r="C7">
-        <v>7.4235807860262015E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.62195121951219512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.61550000000000005</v>
-      </c>
-      <c r="C8">
-        <v>0.38427947598253281</v>
-      </c>
-      <c r="D8">
-        <v>0.43278688524590159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="C10">
-        <v>0.25473071324599711</v>
-      </c>
-      <c r="D10">
-        <v>0.53191489361702127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0.67549999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.23871906841339149</v>
-      </c>
-      <c r="D11">
-        <v>0.56551724137931036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="C12">
-        <v>0.28529839883551672</v>
-      </c>
-      <c r="D12">
-        <v>0.4962025316455696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="C13">
-        <v>0.34934497816593879</v>
-      </c>
-      <c r="D13">
-        <v>0.47151277013752457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.66849999999999998</v>
-      </c>
       <c r="C15">
-        <v>0.23726346433770021</v>
+        <v>0.19796215429403199</v>
       </c>
       <c r="D15">
-        <v>0.53973509933774833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E15">
+        <v>0.21071539364421579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.67349999999999999</v>
       </c>
       <c r="C16">
-        <v>0.26346433770014549</v>
+        <v>0.25327510917030571</v>
       </c>
       <c r="D16">
-        <v>0.55182926829268297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.55414012738853502</v>
+      </c>
+      <c r="E16">
+        <v>0.21126361622352791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>0.64</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="C17">
-        <v>5.3857350800582238E-2</v>
+        <v>2.911208151382824E-3</v>
       </c>
       <c r="D17">
-        <v>0.34579439252336452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E17">
+        <v>0.21868387067113401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0.59499999999999997</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="C18">
-        <v>0.31586608442503639</v>
+        <v>0.22852983988355169</v>
       </c>
       <c r="D18">
-        <v>0.38958707360861761</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>0.54895104895104896</v>
+      </c>
+      <c r="E18">
+        <v>0.21857538511146821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
